--- a/planning enzo/Urenverantwoording.xlsx
+++ b/planning enzo/Urenverantwoording.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\workspace\ProjectBierHier\planning enzo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="18915" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Tijd</t>
   </si>
@@ -30,9 +35,6 @@
     <t>Cihan Akkoc</t>
   </si>
   <si>
-    <t>Downloaden en installeren  van Eclipse en Google app engine.</t>
-  </si>
-  <si>
     <t>30 minuten</t>
   </si>
   <si>
@@ -43,13 +45,73 @@
   </si>
   <si>
     <t>Nino Zametica</t>
+  </si>
+  <si>
+    <t>0,5 uur</t>
+  </si>
+  <si>
+    <t>1,5 uur</t>
+  </si>
+  <si>
+    <t>2,5 uur</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Homepage/Navbar</t>
+  </si>
+  <si>
+    <t>Homepage + planning</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Navbar/Footer</t>
+  </si>
+  <si>
+    <t>Navbar/Contact Merge</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Homepage/Blog testing</t>
+  </si>
+  <si>
+    <t>Concerten met Bilal</t>
+  </si>
+  <si>
+    <t>Concerten fixen</t>
+  </si>
+  <si>
+    <t>Fonts &amp; Headers</t>
+  </si>
+  <si>
+    <t>Opmaak Restaurants</t>
+  </si>
+  <si>
+    <t>Logo's &amp; Banner</t>
+  </si>
+  <si>
+    <t>Recepten inhoud &amp; opmaak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opmaak headers</t>
+  </si>
+  <si>
+    <t>Resizability</t>
+  </si>
+  <si>
+    <t>Installeren Eclipse &amp; App Engine.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +133,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -140,6 +209,89 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
@@ -150,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,9 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,6 +328,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -189,6 +389,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -237,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,26 +684,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O16"/>
+  <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -511,266 +714,439 @@
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>42242</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>42242</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42242</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="K5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7">
+        <v>42242</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="9">
+        <v>42246</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="9">
+        <v>42247</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="15">
+        <v>42248</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="18">
+        <v>42249</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="11">
+        <v>42255</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="21">
+        <v>42255</v>
+      </c>
+      <c r="J11" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="K11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="21">
+        <v>42255</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="21">
+        <v>42256</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="21">
+        <v>42261</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="21">
+        <v>42261</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="I16" s="21">
+        <v>42262</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="21">
+        <v>42262</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="21">
+        <v>42263</v>
+      </c>
+      <c r="J18" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="21">
+        <v>42284</v>
+      </c>
+      <c r="J19" s="22">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="21">
+        <v>42285</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="21">
+        <v>42285</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="21">
+        <v>42287</v>
+      </c>
+      <c r="J22" s="22">
+        <v>4</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="21">
+        <v>42287</v>
+      </c>
+      <c r="J23" s="22">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="21">
+        <v>42287</v>
+      </c>
+      <c r="J24" s="22">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>42242</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8">
-        <v>42242</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8">
-        <v>42242</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="8">
-        <v>42242</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="6"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="K24" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K26" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/planning enzo/Urenverantwoording.xlsx
+++ b/planning enzo/Urenverantwoording.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
-  <si>
-    <t>Tijd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -35,9 +32,6 @@
     <t>Cihan Akkoc</t>
   </si>
   <si>
-    <t>30 minuten</t>
-  </si>
-  <si>
     <t>Bilal Sahraoui</t>
   </si>
   <si>
@@ -47,15 +41,6 @@
     <t>Nino Zametica</t>
   </si>
   <si>
-    <t>0,5 uur</t>
-  </si>
-  <si>
-    <t>1,5 uur</t>
-  </si>
-  <si>
-    <t>2,5 uur</t>
-  </si>
-  <si>
     <t>Homepage</t>
   </si>
   <si>
@@ -105,6 +90,12 @@
   </si>
   <si>
     <t>Installeren Eclipse &amp; App Engine.</t>
+  </si>
+  <si>
+    <t>Tijd (in uren)</t>
+  </si>
+  <si>
+    <t>Opmaak &amp; van alles</t>
   </si>
 </sst>
 </file>
@@ -302,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,7 +362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,114 +699,114 @@
     <row r="2" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="27"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="26"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42242</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>27</v>
+      <c r="B5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="7">
         <v>42242</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>27</v>
+      <c r="F5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="I5" s="7">
         <v>42242</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>27</v>
+      <c r="J5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>42242</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>27</v>
+      <c r="N5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -829,11 +819,11 @@
       <c r="I6" s="9">
         <v>42246</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>8</v>
+      <c r="J6" s="8">
+        <v>0.5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="3"/>
@@ -849,11 +839,11 @@
       <c r="I7" s="9">
         <v>42247</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>9</v>
+      <c r="J7" s="8">
+        <v>1.5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="3"/>
@@ -869,11 +859,11 @@
       <c r="I8" s="15">
         <v>42248</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>10</v>
+      <c r="J8" s="16">
+        <v>2.5</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="3"/>
@@ -893,7 +883,7 @@
         <v>1.5</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="3"/>
@@ -913,7 +903,7 @@
         <v>1.25</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="3"/>
@@ -933,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
@@ -953,7 +943,7 @@
         <v>1.75</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="3"/>
@@ -973,7 +963,7 @@
         <v>0.5</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="3"/>
@@ -993,7 +983,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="3"/>
@@ -1013,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="3"/>
@@ -1033,7 +1023,7 @@
         <v>0.5</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="3"/>
@@ -1053,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -1067,7 +1057,7 @@
         <v>1.5</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1078,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,7 +1079,7 @@
         <v>1.5</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1100,7 +1090,7 @@
         <v>1.5</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1133,15 +1123,21 @@
         <v>2</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="21">
+        <v>42288</v>
+      </c>
+      <c r="J25" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K26" s="23"/>
     </row>
   </sheetData>

--- a/planning enzo/Urenverantwoording.xlsx
+++ b/planning enzo/Urenverantwoording.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -96,6 +96,54 @@
   </si>
   <si>
     <t>Opmaak &amp; van alles</t>
+  </si>
+  <si>
+    <t>Downloaden en installeren  van Eclipse en Google app engine.</t>
+  </si>
+  <si>
+    <t>Het maken en wekelijks bijwerken van de planning.</t>
+  </si>
+  <si>
+    <t>Het maken van de contactpagina voor Project BierHier.</t>
+  </si>
+  <si>
+    <t>Het maken van de homepage voor Project BierHier.</t>
+  </si>
+  <si>
+    <t>Het maken en bewerken/ beheren van de presentatie voor project BierHier.</t>
+  </si>
+  <si>
+    <t>Het maken en bijwerken van de banner + logo voor BierHier.</t>
+  </si>
+  <si>
+    <t>Invullen van testplan.</t>
+  </si>
+  <si>
+    <t>Het maken van de webpagina sportevenementen voor project BierHier</t>
+  </si>
+  <si>
+    <t>Maken en bijwerken van Testplan</t>
+  </si>
+  <si>
+    <t>Bijhouden van Urenverantwoording</t>
+  </si>
+  <si>
+    <t>Het maken van de reflectieverslag + invullen van de urentverantwoording.</t>
+  </si>
+  <si>
+    <t>Het maken van de layout voor de urenverantwoording.</t>
+  </si>
+  <si>
+    <t>2015-10-05 t/m 2015-10-12</t>
+  </si>
+  <si>
+    <t>2015-08-26 t/m 2015-10-12</t>
+  </si>
+  <si>
+    <t>2015-09-03 t/m 2015-10-13</t>
+  </si>
+  <si>
+    <t>2015-09-21 t/m 2015-10-12</t>
   </si>
 </sst>
 </file>
@@ -140,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -288,12 +336,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,7 +420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -369,6 +427,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -674,23 +747,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O26"/>
+  <dimension ref="A2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
     <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -699,20 +772,20 @@
     <row r="2" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="26"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
         <v>5</v>
@@ -721,16 +794,16 @@
     </row>
     <row r="3" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="25"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="25"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="25"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -778,7 +851,7 @@
       <c r="B5" s="8">
         <v>0.5</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="7">
@@ -787,8 +860,8 @@
       <c r="F5" s="8">
         <v>0.5</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>22</v>
+      <c r="G5" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="7">
         <v>42242</v>
@@ -796,7 +869,7 @@
       <c r="J5" s="8">
         <v>0.5</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="7">
@@ -805,341 +878,415 @@
       <c r="N5" s="8">
         <v>0.5</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="I6" s="9">
-        <v>42246</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
       <c r="M6" s="4"/>
       <c r="N6" s="3"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="I7" s="9">
-        <v>42247</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="9">
+        <v>42246</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="28">
+        <v>42255</v>
+      </c>
+      <c r="F7" s="29">
+        <v>2</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="3"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="15">
-        <v>42248</v>
-      </c>
-      <c r="J8" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="A8" s="9">
+        <v>42247</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E8" s="9">
+        <v>42256</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
       <c r="M8" s="4"/>
       <c r="N8" s="3"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="18">
-        <v>42249</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="15">
+        <v>42248</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42261</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="11">
-        <v>42255</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="18">
+        <v>42249</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="3"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="21">
+      <c r="A11" s="11">
         <v>42255</v>
       </c>
-      <c r="J11" s="14">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="B11" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="E11" s="9">
+        <v>42268</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="I12" s="21">
+      <c r="A12" s="21">
         <v>42255</v>
       </c>
-      <c r="J12" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42288</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="21">
-        <v>42256</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="21">
+        <v>42255</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9">
+        <v>42288</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3"/>
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="21">
-        <v>42261</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="A14" s="21">
+        <v>42256</v>
+      </c>
+      <c r="B14" s="14">
         <v>0.5</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42289</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="21">
+        <v>42261</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
-      <c r="I15" s="21">
-        <v>42261</v>
-      </c>
-      <c r="J15" s="14">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="21">
+        <v>42261</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
-      <c r="I16" s="21">
-        <v>42262</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
       <c r="M16" s="4"/>
       <c r="N16" s="3"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+    <row r="17" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>42262</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="21">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
         <v>42262</v>
       </c>
-      <c r="J17" s="14">
+      <c r="B18" s="14">
         <v>1</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="21">
+    </row>
+    <row r="19" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
         <v>42263</v>
       </c>
-      <c r="J18" s="22">
+      <c r="B19" s="22">
         <v>1.5</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="21">
+    <row r="20" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
         <v>42284</v>
       </c>
-      <c r="J19" s="22">
+      <c r="B21" s="22">
         <v>1</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="21">
+    <row r="22" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>42285</v>
       </c>
-      <c r="J20" s="22">
+      <c r="B22" s="22">
         <v>1.5</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="21">
+    <row r="23" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
         <v>42285</v>
       </c>
-      <c r="J21" s="22">
+      <c r="B23" s="22">
         <v>1.5</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="21">
+    <row r="24" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
         <v>42287</v>
       </c>
-      <c r="J22" s="22">
+      <c r="B24" s="22">
         <v>4</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="21">
+    <row r="25" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
         <v>42287</v>
       </c>
-      <c r="J23" s="22">
+      <c r="B25" s="22">
         <v>1</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="21">
+    <row r="26" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
         <v>42287</v>
       </c>
-      <c r="J24" s="22">
+      <c r="B26" s="22">
         <v>2</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="21">
+    <row r="27" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
         <v>42288</v>
       </c>
-      <c r="J25" s="13">
+      <c r="B27" s="13">
         <v>6.5</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="23"/>
-    </row>
+    <row r="28" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/planning enzo/Urenverantwoording.xlsx
+++ b/planning enzo/Urenverantwoording.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Daniel Wezeman</t>
   </si>
   <si>
-    <t>Nino Zametica</t>
-  </si>
-  <si>
     <t>Homepage</t>
   </si>
   <si>
@@ -144,6 +141,48 @@
   </si>
   <si>
     <t>2015-09-21 t/m 2015-10-12</t>
+  </si>
+  <si>
+    <t>werken aan planning</t>
+  </si>
+  <si>
+    <t>werken aan concerten</t>
+  </si>
+  <si>
+    <t>werken aan concerten CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werken aan concerten </t>
+  </si>
+  <si>
+    <t>afronden concerten</t>
+  </si>
+  <si>
+    <t>werken aan tekst restauranten</t>
+  </si>
+  <si>
+    <t>footer concerten fixen</t>
+  </si>
+  <si>
+    <t>met daniel footer fixen concerten</t>
+  </si>
+  <si>
+    <t>finishing touches concerten</t>
+  </si>
+  <si>
+    <t>werken aan restauranten</t>
+  </si>
+  <si>
+    <t>werken aan restauranten (css) met daniel</t>
+  </si>
+  <si>
+    <t>urenplanning en reflectie</t>
+  </si>
+  <si>
+    <t>Reflectieverslag</t>
+  </si>
+  <si>
+    <t>Opmaak Restaurants met Bilal</t>
   </si>
 </sst>
 </file>
@@ -352,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,14 +480,75 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -747,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S28"/>
+  <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,13 +863,10 @@
     <col min="7" max="7" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -786,13 +883,8 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="25"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="24"/>
       <c r="C3" s="1"/>
@@ -802,16 +894,13 @@
       <c r="I3" s="1"/>
       <c r="J3" s="24"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -820,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>1</v>
@@ -829,22 +918,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42242</v>
       </c>
@@ -852,7 +932,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7">
         <v>42242</v>
@@ -861,54 +941,48 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="34">
         <v>42242</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="35">
         <v>0.5</v>
       </c>
-      <c r="K5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>42242</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I6" s="39">
+        <v>42246</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>42246</v>
       </c>
@@ -916,7 +990,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="28">
         <v>42255</v>
@@ -925,16 +999,19 @@
         <v>2</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I7" s="40">
+        <v>42247</v>
+      </c>
+      <c r="J7" s="32">
+        <v>2</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>42247</v>
       </c>
@@ -942,7 +1019,7 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="9">
         <v>42256</v>
@@ -951,16 +1028,19 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I8" s="40">
+        <v>42248</v>
+      </c>
+      <c r="J8" s="32">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>42248</v>
       </c>
@@ -968,7 +1048,7 @@
         <v>2.5</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="9">
         <v>42261</v>
@@ -977,16 +1057,19 @@
         <v>2</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I9" s="40">
+        <v>42249</v>
+      </c>
+      <c r="J9" s="32">
+        <v>1</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>42249</v>
       </c>
@@ -994,25 +1077,28 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8">
         <v>3</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I10" s="40">
+        <v>42255</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>42255</v>
       </c>
@@ -1020,7 +1106,7 @@
         <v>1.25</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="9">
         <v>42268</v>
@@ -1029,16 +1115,19 @@
         <v>2</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I11" s="40">
+        <v>42256</v>
+      </c>
+      <c r="J11" s="32">
+        <v>2</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>42255</v>
       </c>
@@ -1046,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="9">
         <v>42288</v>
@@ -1055,16 +1144,19 @@
         <v>0.25</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I12" s="40">
+        <v>42261</v>
+      </c>
+      <c r="J12" s="32">
+        <v>1</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>42255</v>
       </c>
@@ -1072,7 +1164,7 @@
         <v>1.75</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9">
         <v>42288</v>
@@ -1081,16 +1173,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I13" s="40">
+        <v>42262</v>
+      </c>
+      <c r="J13" s="32">
+        <v>1</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>42256</v>
       </c>
@@ -1098,7 +1193,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="9">
         <v>42289</v>
@@ -1107,16 +1202,19 @@
         <v>0.75</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I14" s="40">
+        <v>42262</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>42261</v>
       </c>
@@ -1124,19 +1222,22 @@
         <v>0.5</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="40">
+        <v>42283</v>
+      </c>
+      <c r="J15" s="32">
+        <v>2</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>42261</v>
       </c>
@@ -1144,19 +1245,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="5"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="40">
+        <v>42284</v>
+      </c>
+      <c r="J16" s="32">
+        <v>3</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>42262</v>
       </c>
@@ -1164,19 +1268,25 @@
         <v>0.5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="39">
+        <v>42289</v>
+      </c>
+      <c r="J17" s="41">
+        <v>2</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>42262</v>
       </c>
@@ -1184,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>42263</v>
       </c>
@@ -1195,21 +1305,21 @@
         <v>1.5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>42284</v>
       </c>
@@ -1217,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>42285</v>
       </c>
@@ -1228,10 +1338,10 @@
         <v>1.5</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>42285</v>
       </c>
@@ -1239,10 +1349,10 @@
         <v>1.5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>42287</v>
       </c>
@@ -1250,10 +1360,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>42287</v>
       </c>
@@ -1261,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>42287</v>
       </c>
@@ -1272,10 +1382,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>42288</v>
       </c>
@@ -1283,10 +1393,21 @@
         <v>6.5</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <v>42290</v>
+      </c>
+      <c r="B28" s="36">
+        <v>1</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/planning enzo/Urenverantwoording.xlsx
+++ b/planning enzo/Urenverantwoording.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Opmaak Restaurants met Bilal</t>
+  </si>
+  <si>
+    <t>Finishing touches</t>
   </si>
 </sst>
 </file>
@@ -847,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P29"/>
+  <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1410,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>42290</v>
+      </c>
+      <c r="B29" s="36">
+        <v>1</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
